--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T16:35:29+00:00</t>
+    <t>2023-09-19T16:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T16:41:18+00:00</t>
+    <t>2023-09-19T20:24:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T20:24:46+00:00</t>
+    <t>2023-09-19T20:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T20:28:41+00:00</t>
+    <t>2023-09-19T20:38:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T20:38:39+00:00</t>
+    <t>2023-09-19T20:54:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T20:54:55+00:00</t>
+    <t>2023-09-19T21:00:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T21:00:55+00:00</t>
+    <t>2023-09-20T05:33:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T05:33:10+00:00</t>
+    <t>2023-09-20T05:41:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T05:41:48+00:00</t>
+    <t>2023-09-21T16:40:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-21T16:40:33+00:00</t>
+    <t>2023-09-21T16:50:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-21T16:50:51+00:00</t>
+    <t>2023-09-21T16:52:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-21T16:52:03+00:00</t>
+    <t>2023-09-22T15:26:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T15:26:15+00:00</t>
+    <t>2023-09-22T20:49:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/core/all-profiles.xlsx
+++ b/core/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T20:49:10+00:00</t>
+    <t>2023-09-22T20:51:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
